--- a/biology/Biochimie/P50/P50.xlsx
+++ b/biology/Biochimie/P50/P50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En biochimie, la p50 est la pression d'un gaz requise pour atteindre 50 % de saturation d'une enzyme.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les valeurs de p50 sont négativement corrélées avec l'affinité du substrat, c'est-à-dire que de basses p50 correspondent à une forte affinité, et vice versa. La p50 est comparable à la constante de Michaelis-Menten (Km) qui correspond à la concentration d'un substrat requise pour atteindre 50 % de la vitesse maximale de réaction.
 </t>
@@ -543,7 +557,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La p50 de la myoglobine pour l'oxygène est de 130 Pa alors que pour l'hémoglobine elle est de 3.5 kPa (soit 3500 Pa). C'est-à-dire que dans les basses pressions en oxygène, l'oxygène transporté par l'hémoglobine a tendance à se transférer vers la myoglobine. La myoglobine étant à l'intérieur du muscle, en captant l'oxygène elle peut le transférer à la cellule en vue de produire l'énergie nécessaire à la contraction musculaire.
  Portail de la biochimie   Portail de la médecine                    </t>
